--- a/wtt/yjn2/yjn2_cfd_rib.xlsx
+++ b/wtt/yjn2/yjn2_cfd_rib.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -67,6 +68,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -137,11 +139,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -157,6 +159,85 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>673920</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="360"/>
+          <a:ext cx="5550480" cy="4015800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>673920</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4064400"/>
+          <a:ext cx="5550480" cy="4015800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -164,987 +245,987 @@
   </sheetPr>
   <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>4.371855781</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>1.1208</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>-0.3446</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>-0.5289</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>1.6562</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>-0.3779</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>-0.0259</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>-0.5353</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>0.0333</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>0.017</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>1.1208</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>-0.3446</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>-0.5289</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>1.6562</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>-0.3779</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>-0.0259</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>-0.5353</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>0.0333</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>0.017</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>1.1208</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>-0.3446</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>-0.5289</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>1.6562</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>-0.3779</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>-0.0259</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>-0.5353</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>0.0333</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>0.017</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>1.1208</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>-0.3446</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>-0.5289</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>1.6562</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>-0.3779</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>-0.0259</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>-0.5353</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="1" t="n">
         <v>0.0333</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>0.017</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>1.1208</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>-0.3446</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>-0.5289</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>1.6562</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>-0.3779</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>-0.0259</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>-0.5353</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="1" t="n">
         <v>0.0333</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>0.017</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>1.7645</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>-0.1196</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>-0.0844</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>1.6303</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>-0.0641</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>-0.0522</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>0.1342</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="1" t="n">
         <v>-0.0555</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>-0.0213</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>1.1568</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>-0.3531</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>-0.5468</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>1.5592</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>-0.3781</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <v>-0.0367</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>-0.4024</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="1" t="n">
         <v>-0.0003</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>1.1191</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>-0.3256</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>-0.5084</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>1.6512</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>-0.3607</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>-0.0231</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>-0.5321</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <v>0.0351</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <v>0.0154</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>1.1274</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>-0.3338</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>-0.5146</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>1.6524</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>-0.367</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>-0.0245</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>-0.525</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="1" t="n">
         <v>0.0332</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="1" t="n">
         <v>0.0161</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>1.1294</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>-0.3356</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>-0.516</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>1.6526</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>-0.3683</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <v>-0.0249</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>-0.5231</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="1" t="n">
         <v>0.0327</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="1" t="n">
         <v>0.0162</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>1.0682</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>-0.245</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>-0.424</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>1.39</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>-0.2675</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>-0.0469</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>-0.3218</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="1" t="n">
         <v>0.0224</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="1" t="n">
         <v>-0.0105</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>1.1036</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>-0.2528</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>-0.3836</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>1.5619</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>-0.2716</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <v>-0.0214</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>-0.4583</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="1" t="n">
         <v>0.0188</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="1" t="n">
         <v>0.0051</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>1.1366</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>-0.2712</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>-0.4053</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>1.6293</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>-0.2904</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <v>-0.0209</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>-0.4927</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="1" t="n">
         <v>0.0192</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="1" t="n">
         <v>0.0071</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>1.1642</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>-0.2786</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>-0.4036</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>1.6479</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>-0.294</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="1" t="n">
         <v>-0.0189</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>-0.4838</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="1" t="n">
         <v>0.0154</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="1" t="n">
         <v>0.0066</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>1.1704</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>-0.2796</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>-0.4038</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>1.6506</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <v>-0.2947</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="1" t="n">
         <v>-0.0184</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <v>-0.4801</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="1" t="n">
         <v>0.0151</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="1" t="n">
         <v>0.0064</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>1.2593</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>-0.3697</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>-0.7869</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>1.567</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="1" t="n">
         <v>-0.3713</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="1" t="n">
         <v>-0.0226</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="1" t="n">
         <v>-0.3076</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34" s="1" t="n">
         <v>0.0016</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34" s="1" t="n">
         <v>0.0059</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>1.2593</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>-0.3697</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>-0.7869</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>1.567</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="1" t="n">
         <v>-0.3713</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="1" t="n">
         <v>-0.0226</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="1" t="n">
         <v>-0.3076</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35" s="1" t="n">
         <v>0.0016</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35" s="1" t="n">
         <v>0.0059</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>1.2593</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>-0.3697</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>-0.7869</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>1.567</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="1" t="n">
         <v>-0.3713</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36" s="1" t="n">
         <v>-0.0226</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="1" t="n">
         <v>-0.3076</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36" s="1" t="n">
         <v>0.0016</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36" s="1" t="n">
         <v>0.0059</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>1.2593</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>-0.3697</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>-0.7869</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>1.567</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="1" t="n">
         <v>-0.3713</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37" s="1" t="n">
         <v>-0.0226</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37" s="1" t="n">
         <v>-0.3076</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37" s="1" t="n">
         <v>0.0016</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37" s="1" t="n">
         <v>0.0059</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>1.2593</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>-0.3697</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>-0.7869</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>1.567</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="1" t="n">
         <v>-0.3713</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="1" t="n">
         <v>-0.0226</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="1" t="n">
         <v>-0.3076</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38" s="1" t="n">
         <v>0.0016</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J38" s="1" t="n">
         <v>0.0059</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>1.9254</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>-0.1199</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>-0.1027</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>1.5992</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="1" t="n">
         <v>-0.0686</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39" s="1" t="n">
         <v>-0.0508</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39" s="1" t="n">
         <v>0.3262</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39" s="1" t="n">
         <v>-0.0514</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="J39" s="1" t="n">
         <v>-0.0163</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>1.2707</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>-0.3586</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>-0.7725</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>1.4819</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="1" t="n">
         <v>-0.3563</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40" s="1" t="n">
         <v>-0.0344</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40" s="1" t="n">
         <v>-0.2112</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="I40" s="1" t="n">
         <v>-0.0022</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="J40" s="1" t="n">
         <v>-0.0069</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>1.202</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>-0.3152</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>-0.7197</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>1.5653</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="1" t="n">
         <v>-0.3291</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41" s="1" t="n">
         <v>-0.0195</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41" s="1" t="n">
         <v>-0.3633</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="I41" s="1" t="n">
         <v>0.014</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="J41" s="1" t="n">
         <v>0.0083</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>1.2391</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>-0.3481</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>-0.7372</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>1.5705</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="1" t="n">
         <v>-0.3492</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42" s="1" t="n">
         <v>-0.0207</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42" s="1" t="n">
         <v>-0.3313</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="I42" s="1" t="n">
         <v>0.0012</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="J42" s="1" t="n">
         <v>0.0072</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>1.241</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>-0.3506</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>-0.7397</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>1.5709</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="1" t="n">
         <v>-0.351</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43" s="1" t="n">
         <v>-0.0211</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43" s="1" t="n">
         <v>-0.3299</v>
       </c>
-      <c r="I43" s="0" t="n">
+      <c r="I43" s="1" t="n">
         <v>0.0004</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="J43" s="1" t="n">
         <v>0.0072</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>1.0487</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>-0.2432</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>-0.6365</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>1.3296</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="1" t="n">
         <v>-0.2627</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44" s="1" t="n">
         <v>-0.0446</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44" s="1" t="n">
         <v>-0.2809</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44" s="1" t="n">
         <v>0.0195</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44" s="1" t="n">
         <v>-0.0089</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>1.0386</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>-0.2245</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>-0.5377</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>1.5016</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="1" t="n">
         <v>-0.2407</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45" s="1" t="n">
         <v>-0.0185</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45" s="1" t="n">
         <v>-0.463</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45" s="1" t="n">
         <v>0.0162</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45" s="1" t="n">
         <v>0.0112</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>1.1093</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>-0.2487</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <v>-0.5557</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>1.5559</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="1" t="n">
         <v>-0.2589</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46" s="1" t="n">
         <v>-0.017</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="1" t="n">
         <v>-0.4465</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46" s="1" t="n">
         <v>0.0102</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J46" s="1" t="n">
         <v>0.0171</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>1.1514</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>-0.2637</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <v>-0.5594</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>1.5811</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="1" t="n">
         <v>-0.2681</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="G47" s="1" t="n">
         <v>-0.0161</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47" s="1" t="n">
         <v>-0.4297</v>
       </c>
-      <c r="I47" s="0" t="n">
+      <c r="I47" s="1" t="n">
         <v>0.0044</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J47" s="1" t="n">
         <v>0.0194</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>1.154</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>-0.2642</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="1" t="n">
         <v>-0.5584</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>1.5849</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="1" t="n">
         <v>-0.2683</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48" s="1" t="n">
         <v>-0.0157</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48" s="1" t="n">
         <v>-0.431</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="I48" s="1" t="n">
         <v>0.0041</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48" s="1" t="n">
         <v>0.0199</v>
       </c>
     </row>
@@ -1157,4 +1238,28 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/wtt/yjn2/yjn2_cfd_rib.xlsx
+++ b/wtt/yjn2/yjn2_cfd_rib.xlsx
@@ -170,9 +170,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>673920</xdr:colOff>
+      <xdr:colOff>673560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -186,7 +186,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="360"/>
-          <a:ext cx="5550480" cy="4015800"/>
+          <a:ext cx="5557680" cy="4015440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -207,9 +207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>673920</xdr:colOff>
+      <xdr:colOff>673560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -223,7 +223,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4064400"/>
-          <a:ext cx="5550480" cy="4015800"/>
+          <a:ext cx="5557680" cy="4015440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -243,13 +243,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:J48"/>
+  <dimension ref="B2:R48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
+      <selection pane="topLeft" activeCell="P43" activeCellId="0" sqref="P43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -400,6 +400,24 @@
       <c r="J13" s="1" t="n">
         <v>0.017</v>
       </c>
+      <c r="M13" s="0" t="n">
+        <v>1.0125</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>-0.2623</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>-0.3449</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1.0129</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>-0.2624</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>-0.3446</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="n">
@@ -429,6 +447,24 @@
       <c r="J14" s="1" t="n">
         <v>0.017</v>
       </c>
+      <c r="M14" s="0" t="n">
+        <v>1.5216</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>-0.277</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>-0.0172</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1.5218</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>-0.2768</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>-0.0171</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="n">
@@ -458,6 +494,24 @@
       <c r="J15" s="1" t="n">
         <v>0.017</v>
       </c>
+      <c r="M15" s="0" t="n">
+        <v>-0.5091</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.0096</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>-0.5089</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>0.0096</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="n">
@@ -663,31 +717,31 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="2" t="n">
         <v>1.1366</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2" t="n">
         <v>-0.2712</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="2" t="n">
         <v>-0.4053</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="2" t="n">
         <v>1.6293</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="2" t="n">
         <v>-0.2904</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="2" t="n">
         <v>-0.0209</v>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H23" s="2" t="n">
         <v>-0.4927</v>
       </c>
-      <c r="I23" s="1" t="n">
+      <c r="I23" s="2" t="n">
         <v>0.0192</v>
       </c>
-      <c r="J23" s="1" t="n">
+      <c r="J23" s="2" t="n">
         <v>0.0071</v>
       </c>
     </row>
@@ -822,6 +876,24 @@
       <c r="J34" s="1" t="n">
         <v>0.0059</v>
       </c>
+      <c r="M34" s="0" t="n">
+        <v>1.0153</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>-0.2428</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>-0.4967</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>1.0182</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>-0.2427</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>-0.4945</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="n">
@@ -851,6 +923,24 @@
       <c r="J35" s="1" t="n">
         <v>0.0059</v>
       </c>
+      <c r="M35" s="0" t="n">
+        <v>1.4088</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>-0.2516</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>-0.0151</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>1.4098</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>-0.2509</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>-0.0148</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="n">
@@ -880,6 +970,24 @@
       <c r="J36" s="1" t="n">
         <v>0.0059</v>
       </c>
+      <c r="M36" s="0" t="n">
+        <v>-0.3934</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.0088</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>-0.3916</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>0.0082</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="n">
@@ -1143,31 +1251,31 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="2" t="n">
         <v>1.1093</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C46" s="2" t="n">
         <v>-0.2487</v>
       </c>
-      <c r="D46" s="1" t="n">
+      <c r="D46" s="2" t="n">
         <v>-0.5557</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="2" t="n">
         <v>1.5559</v>
       </c>
-      <c r="F46" s="1" t="n">
+      <c r="F46" s="2" t="n">
         <v>-0.2589</v>
       </c>
-      <c r="G46" s="1" t="n">
+      <c r="G46" s="2" t="n">
         <v>-0.017</v>
       </c>
-      <c r="H46" s="1" t="n">
+      <c r="H46" s="2" t="n">
         <v>-0.4465</v>
       </c>
-      <c r="I46" s="1" t="n">
+      <c r="I46" s="2" t="n">
         <v>0.0102</v>
       </c>
-      <c r="J46" s="1" t="n">
+      <c r="J46" s="2" t="n">
         <v>0.0171</v>
       </c>
     </row>
@@ -1251,7 +1359,7 @@
       <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
